--- a/biology/Botanique/Rubus_henryi/Rubus_henryi.xlsx
+++ b/biology/Botanique/Rubus_henryi/Rubus_henryi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La ronce de Henry, Rubus henryi, est une espèce de plante à fleurs de la famille des Rosaceae originaire de Chine.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La ronce de Henry est une liane pouvant dépasser six mètres de haut.
 Ses feuilles sont persistantes, vert foncé. Leur forme trilobée est très caractéristique de l'espèce. L'ensemble est glabre.
@@ -546,7 +560,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La ronce de Henry a été dédiée en 1887 par William Botting Hemsley et Carl Ernst Otto Kuntze à Aimé Constant Fidèle Henry qui l'a collectée dans le Hubei (Chine), près d'Yichang.
 Cette espèce est classée dans le sous-genre Malachobatus.
@@ -580,7 +596,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est originaire de Chine : Guizhou, Hubei, Hunan, Sichuan.
 Elle est actuellement largement répandue dans tous les pays à climat tempéré.
@@ -612,7 +630,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le fruit est comestible et sucré. Les jeunes feuilles sont utilisées en tisane comme du thé.
 Cette espèce a aussi un usage ornemental comme plante grimpante persistante.
